--- a/src/ServerCoffeeApp/arxiv.xlsx
+++ b/src/ServerCoffeeApp/arxiv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coffe-app\coffe-landishi\coffe-app\ServerCoffeeApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KP_KPO\coffe-landishi\src\ServerCoffeeApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E913A7A-6FB8-4D2D-B821-A51F60DC7CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0DD61-0AC0-4E5D-8841-4346B8E7C6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Архив" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -46,14 +46,19 @@
   </si>
   <si>
     <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +89,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,63 +384,84 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>45627</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>45621</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>9.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>